--- a/Anhang1_Parameter_Waldstandorte_BE_erweitert_220929.xlsx
+++ b/Anhang1_Parameter_Waldstandorte_BE_erweitert_220929.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Masterarbeit\Parametertabelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB76AC09-D230-4130-90EC-E97F30D7AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B9D7B1-5FEE-48E8-AEEA-03F3E917E2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1820,9 +1820,6 @@
     <t>41* collin</t>
   </si>
   <si>
-    <t>Einheit_BE_zukunft</t>
-  </si>
-  <si>
     <t>joinid_alt</t>
   </si>
   <si>
@@ -1929,6 +1926,9 @@
   </si>
   <si>
     <t>68 - colline Variante</t>
+  </si>
+  <si>
+    <t>BE_zukunft</t>
   </si>
 </sst>
 </file>
@@ -3237,29 +3237,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3452,6 +3429,29 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4868,7 +4868,7 @@
     <tableColumn id="4" xr3:uid="{C9C4302D-01BE-4379-99D5-CB2A126F927A}" name="NaiS_LFI_JU" dataDxfId="55"/>
     <tableColumn id="5" xr3:uid="{7A0C2578-75D6-437F-BBF9-A80B8D0452C7}" name="NaiS_LFI_M/A" dataDxfId="54"/>
     <tableColumn id="6" xr3:uid="{8C3ECD84-22D5-45E7-BA0E-7C5E0789B570}" name="BE" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{D34CE343-53FC-44DA-9979-C0E3C1B178CD}" name="Einheit_BE_zukunft" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{D34CE343-53FC-44DA-9979-C0E3C1B178CD}" name="BE_zukunft" dataDxfId="52"/>
     <tableColumn id="8" xr3:uid="{97CF633D-EB67-41A0-AFA8-F4B4753F311E}" name="Gruppe Potentialkarte WBio-LA (1a, 1b, 2 nicht arrondieren, nur &quot;3&quot; und &quot;x&quot; arrondieren)" dataDxfId="51"/>
     <tableColumn id="9" xr3:uid="{C1D9160C-B02C-411A-8E84-C20687FF6DB6}" name="arrondieren" dataDxfId="50"/>
     <tableColumn id="10" xr3:uid="{FDE95020-885F-4E6D-8366-84BB2BA26DFD}" name="Ju KO" dataDxfId="49"/>
@@ -4912,15 +4912,15 @@
     <tableColumn id="48" xr3:uid="{3A2CB94B-214F-4306-A120-C1479780D5BD}" name="Subregionen" dataDxfId="11"/>
     <tableColumn id="49" xr3:uid="{3E07F29C-51ED-4072-83BC-2F5DA6ACDB72}" name="TongehaltJuraMittelland" dataDxfId="10"/>
     <tableColumn id="50" xr3:uid="{E040CD7D-FF26-4984-83F1-8207470AA946}" name="TongehaltOberland" dataDxfId="9"/>
-    <tableColumn id="59" xr3:uid="{D6033E34-3974-4C80-A778-5DB4446B4BD1}" name="Anforderungsprofil_NaiS_koll" dataDxfId="0"/>
-    <tableColumn id="51" xr3:uid="{1729F7E6-F7A5-49B9-A10C-5E4519AFC242}" name="Anforderungsprofil NaiS" dataDxfId="8"/>
-    <tableColumn id="52" xr3:uid="{04B250AC-3199-4E82-A322-1983B0CFC7B2}" name="Rückübersetzung (BE und Nais Kollin)" dataDxfId="7"/>
-    <tableColumn id="53" xr3:uid="{90D54D60-057C-4992-BF17-33C69C025387}" name="Rückübersetzung in BE-Einheit von NaiS-Zukunft" dataDxfId="6"/>
-    <tableColumn id="54" xr3:uid="{178C9AD0-F2EA-4679-972B-CF007804921E}" name="Arrondierung Jura (wenn x, dann dar diese Einheit überschrieben werden" dataDxfId="5"/>
-    <tableColumn id="55" xr3:uid="{8B65C948-5E2B-4FE0-8C7D-C4A9279A51CA}" name="Arrondierung Mittelland (wenn x, dann dar diese Einheit überschrieben werden" dataDxfId="4"/>
-    <tableColumn id="56" xr3:uid="{1181C0BA-3196-4EDC-9A7A-F149CF5FCF6F}" name="Arrondierung Alpen (wenn x, dann dar diese Einheit überschrieben werden" dataDxfId="3"/>
-    <tableColumn id="57" xr3:uid="{B350FFE7-FBB0-4CDE-8F1D-FD5773240292}" name="NaiS_LFI_JU zusätzlich" dataDxfId="2"/>
-    <tableColumn id="58" xr3:uid="{CBD4172C-A539-4C1F-9343-6003339410FD}" name="NaiS_LFI_M/A zusaetzlich" dataDxfId="1"/>
+    <tableColumn id="59" xr3:uid="{D6033E34-3974-4C80-A778-5DB4446B4BD1}" name="Anforderungsprofil_NaiS_koll" dataDxfId="8"/>
+    <tableColumn id="51" xr3:uid="{1729F7E6-F7A5-49B9-A10C-5E4519AFC242}" name="Anforderungsprofil NaiS" dataDxfId="7"/>
+    <tableColumn id="52" xr3:uid="{04B250AC-3199-4E82-A322-1983B0CFC7B2}" name="Rückübersetzung (BE und Nais Kollin)" dataDxfId="6"/>
+    <tableColumn id="53" xr3:uid="{90D54D60-057C-4992-BF17-33C69C025387}" name="Rückübersetzung in BE-Einheit von NaiS-Zukunft" dataDxfId="5"/>
+    <tableColumn id="54" xr3:uid="{178C9AD0-F2EA-4679-972B-CF007804921E}" name="Arrondierung Jura (wenn x, dann dar diese Einheit überschrieben werden" dataDxfId="4"/>
+    <tableColumn id="55" xr3:uid="{8B65C948-5E2B-4FE0-8C7D-C4A9279A51CA}" name="Arrondierung Mittelland (wenn x, dann dar diese Einheit überschrieben werden" dataDxfId="3"/>
+    <tableColumn id="56" xr3:uid="{1181C0BA-3196-4EDC-9A7A-F149CF5FCF6F}" name="Arrondierung Alpen (wenn x, dann dar diese Einheit überschrieben werden" dataDxfId="2"/>
+    <tableColumn id="57" xr3:uid="{B350FFE7-FBB0-4CDE-8F1D-FD5773240292}" name="NaiS_LFI_JU zusätzlich" dataDxfId="1"/>
+    <tableColumn id="58" xr3:uid="{CBD4172C-A539-4C1F-9343-6003339410FD}" name="NaiS_LFI_M/A zusaetzlich" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5194,9 +5194,9 @@
   </sheetPr>
   <dimension ref="A1:BG463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY1" sqref="AY1"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AY9" sqref="AY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5238,10 +5238,10 @@
         <v>283</v>
       </c>
       <c r="B1" s="143" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C1" s="144" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D1" s="145" t="s">
         <v>252</v>
@@ -5253,13 +5253,13 @@
         <v>79</v>
       </c>
       <c r="G1" s="146" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="H1" s="145" t="s">
         <v>446</v>
       </c>
       <c r="I1" s="147" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J1" s="146" t="s">
         <v>458</v>
@@ -5361,37 +5361,37 @@
         <v>320</v>
       </c>
       <c r="AQ1" s="145" t="s">
+        <v>504</v>
+      </c>
+      <c r="AR1" s="148" t="s">
         <v>505</v>
       </c>
-      <c r="AR1" s="148" t="s">
+      <c r="AS1" s="149" t="s">
         <v>506</v>
       </c>
-      <c r="AS1" s="149" t="s">
-        <v>507</v>
-      </c>
       <c r="AT1" s="150" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AU1" s="149" t="s">
         <v>230</v>
       </c>
       <c r="AV1" s="149" t="s">
+        <v>507</v>
+      </c>
+      <c r="AW1" s="144" t="s">
         <v>508</v>
       </c>
-      <c r="AW1" s="144" t="s">
+      <c r="AX1" s="151" t="s">
         <v>509</v>
       </c>
-      <c r="AX1" s="151" t="s">
-        <v>510</v>
-      </c>
       <c r="AY1" s="146" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AZ1" s="145" t="s">
         <v>395</v>
       </c>
       <c r="BA1" s="146" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="BB1" s="147" t="s">
         <v>447</v>
@@ -47071,7 +47071,7 @@
         <v>243</v>
       </c>
       <c r="AY351" s="129" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AZ351" s="3" t="s">
         <v>303</v>
@@ -47194,7 +47194,7 @@
         <v>243</v>
       </c>
       <c r="AY352" s="129" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AZ352" s="3" t="s">
         <v>303</v>
@@ -47319,7 +47319,7 @@
         <v>243</v>
       </c>
       <c r="AY353" s="129" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AZ353" s="3" t="s">
         <v>303</v>
@@ -47444,7 +47444,7 @@
         <v>243</v>
       </c>
       <c r="AY354" s="129" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AZ354" s="3" t="s">
         <v>303</v>
@@ -47569,7 +47569,7 @@
         <v>243</v>
       </c>
       <c r="AY355" s="129" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AZ355" s="3" t="s">
         <v>303</v>
@@ -47688,7 +47688,7 @@
         <v>235</v>
       </c>
       <c r="AY356" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ356" s="3" t="s">
         <v>290</v>
@@ -47807,7 +47807,7 @@
         <v>235</v>
       </c>
       <c r="AY357" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ357" s="3" t="s">
         <v>290</v>
@@ -47932,7 +47932,7 @@
         <v>235</v>
       </c>
       <c r="AY358" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ358" s="3" t="s">
         <v>290</v>
@@ -48055,7 +48055,7 @@
         <v>235</v>
       </c>
       <c r="AY359" s="129" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AZ359" s="3" t="s">
         <v>8</v>
@@ -48178,7 +48178,7 @@
         <v>250</v>
       </c>
       <c r="AY360" s="129" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ360" s="3" t="s">
         <v>285</v>
@@ -48297,7 +48297,7 @@
         <v>244</v>
       </c>
       <c r="AY361" s="129" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ361" s="3" t="s">
         <v>285</v>
@@ -48414,7 +48414,7 @@
         <v>244</v>
       </c>
       <c r="AY362" s="129" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ362" s="3" t="s">
         <v>285</v>
@@ -48529,7 +48529,7 @@
         <v>236</v>
       </c>
       <c r="AY363" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ363" s="3" t="s">
         <v>298</v>
@@ -48644,7 +48644,7 @@
         <v>241</v>
       </c>
       <c r="AY364" s="129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ364" s="3" t="s">
         <v>286</v>
@@ -48763,7 +48763,7 @@
         <v>241</v>
       </c>
       <c r="AY365" s="129" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AZ365" s="3" t="s">
         <v>287</v>
@@ -48874,7 +48874,7 @@
         <v>241</v>
       </c>
       <c r="AY366" s="129" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AZ366" s="3" t="s">
         <v>90</v>
@@ -48987,7 +48987,7 @@
         <v>241</v>
       </c>
       <c r="AY367" s="129" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AZ367" s="3" t="s">
         <v>90</v>
@@ -49104,7 +49104,7 @@
         <v>241</v>
       </c>
       <c r="AY368" s="129" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AZ368" s="3" t="s">
         <v>287</v>
@@ -49223,7 +49223,7 @@
         <v>241</v>
       </c>
       <c r="AY369" s="129" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AZ369" s="3" t="s">
         <v>287</v>
@@ -49334,7 +49334,7 @@
         <v>244</v>
       </c>
       <c r="AY370" s="129" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ370" s="3" t="s">
         <v>285</v>
@@ -49455,7 +49455,7 @@
         <v>244</v>
       </c>
       <c r="AY371" s="129" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ371" s="3" t="s">
         <v>285</v>
@@ -49568,7 +49568,7 @@
         <v>244</v>
       </c>
       <c r="AY372" s="129" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ372" s="3" t="s">
         <v>285</v>
@@ -49677,7 +49677,7 @@
         <v>245</v>
       </c>
       <c r="AY373" s="129" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ373" s="3" t="s">
         <v>285</v>
@@ -49790,7 +49790,7 @@
         <v>245</v>
       </c>
       <c r="AY374" s="129" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ374" s="3" t="s">
         <v>285</v>
@@ -49901,7 +49901,7 @@
         <v>235</v>
       </c>
       <c r="AY375" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ375" s="3" t="s">
         <v>290</v>
@@ -50012,7 +50012,7 @@
         <v>235</v>
       </c>
       <c r="AY376" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ376" s="3" t="s">
         <v>290</v>
@@ -50127,7 +50127,7 @@
         <v>235</v>
       </c>
       <c r="AY377" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ377" s="3" t="s">
         <v>290</v>
@@ -50238,7 +50238,7 @@
         <v>245</v>
       </c>
       <c r="AY378" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ378" s="3" t="s">
         <v>290</v>
@@ -50349,7 +50349,7 @@
         <v>245</v>
       </c>
       <c r="AY379" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ379" s="3" t="s">
         <v>290</v>
@@ -50472,7 +50472,7 @@
         <v>245</v>
       </c>
       <c r="AY380" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ380" s="3" t="s">
         <v>290</v>
@@ -50595,7 +50595,7 @@
         <v>245</v>
       </c>
       <c r="AY381" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ381" s="3" t="s">
         <v>290</v>
@@ -50708,7 +50708,7 @@
         <v>245</v>
       </c>
       <c r="AY382" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ382" s="3" t="s">
         <v>290</v>
@@ -50827,7 +50827,7 @@
         <v>241</v>
       </c>
       <c r="AY383" s="129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ383" s="3" t="s">
         <v>286</v>
@@ -50948,7 +50948,7 @@
         <v>241</v>
       </c>
       <c r="AY384" s="129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ384" s="3" t="s">
         <v>286</v>
@@ -51067,7 +51067,7 @@
         <v>235</v>
       </c>
       <c r="AY385" s="129" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AZ385" s="3" t="s">
         <v>8</v>
@@ -51184,7 +51184,7 @@
         <v>244</v>
       </c>
       <c r="AY386" s="129" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AZ386" s="3" t="s">
         <v>289</v>
@@ -51301,7 +51301,7 @@
         <v>250</v>
       </c>
       <c r="AY387" s="129" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AZ387" s="3" t="s">
         <v>295</v>
@@ -51418,7 +51418,7 @@
         <v>251</v>
       </c>
       <c r="AY388" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ388" s="3" t="s">
         <v>290</v>
@@ -51535,7 +51535,7 @@
         <v>249</v>
       </c>
       <c r="AY389" s="129" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AZ389" s="3" t="s">
         <v>117</v>
@@ -51652,7 +51652,7 @@
         <v>235</v>
       </c>
       <c r="AY390" s="129" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AZ390" s="3" t="s">
         <v>65</v>
@@ -51773,7 +51773,7 @@
         <v>235</v>
       </c>
       <c r="AY391" s="129" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AZ391" s="3" t="s">
         <v>65</v>
@@ -51888,7 +51888,7 @@
         <v>249</v>
       </c>
       <c r="AY392" s="129" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AZ392" s="3" t="s">
         <v>117</v>
@@ -51999,7 +51999,7 @@
         <v>235</v>
       </c>
       <c r="AY393" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ393" s="3" t="s">
         <v>290</v>
@@ -52122,7 +52122,7 @@
         <v>241</v>
       </c>
       <c r="AY394" s="129" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AZ394" s="3" t="s">
         <v>55</v>
@@ -52235,7 +52235,7 @@
         <v>241</v>
       </c>
       <c r="AY395" s="129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ395" s="3" t="s">
         <v>286</v>
@@ -52350,7 +52350,7 @@
         <v>236</v>
       </c>
       <c r="AY396" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ396" s="3" t="s">
         <v>298</v>
@@ -52465,7 +52465,7 @@
         <v>241</v>
       </c>
       <c r="AY397" s="129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ397" s="3" t="s">
         <v>286</v>
@@ -52580,7 +52580,7 @@
         <v>241</v>
       </c>
       <c r="AY398" s="129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ398" s="3" t="s">
         <v>286</v>
@@ -52701,7 +52701,7 @@
         <v>241</v>
       </c>
       <c r="AY399" s="129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ399" s="3" t="s">
         <v>286</v>
@@ -52818,7 +52818,7 @@
         <v>241</v>
       </c>
       <c r="AY400" s="129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ400" s="3" t="s">
         <v>286</v>
@@ -52937,7 +52937,7 @@
         <v>241</v>
       </c>
       <c r="AY401" s="129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ401" s="3" t="s">
         <v>286</v>
@@ -53056,7 +53056,7 @@
         <v>241</v>
       </c>
       <c r="AY402" s="129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ402" s="3" t="s">
         <v>286</v>
@@ -53179,7 +53179,7 @@
         <v>249</v>
       </c>
       <c r="AY403" s="129" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AZ403" s="3" t="s">
         <v>8</v>
@@ -53294,7 +53294,7 @@
         <v>236</v>
       </c>
       <c r="AY404" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ404" s="3" t="s">
         <v>298</v>
@@ -53415,7 +53415,7 @@
         <v>236</v>
       </c>
       <c r="AY405" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ405" s="3" t="s">
         <v>298</v>
@@ -53534,7 +53534,7 @@
         <v>236</v>
       </c>
       <c r="AY406" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ406" s="3" t="s">
         <v>298</v>
@@ -53653,7 +53653,7 @@
         <v>236</v>
       </c>
       <c r="AY407" s="129" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AZ407" s="3" t="s">
         <v>60</v>
@@ -53774,7 +53774,7 @@
         <v>236</v>
       </c>
       <c r="AY408" s="129" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AZ408" s="3" t="s">
         <v>60</v>
@@ -53893,7 +53893,7 @@
         <v>236</v>
       </c>
       <c r="AY409" s="129" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AZ409" s="6">
         <v>27</v>
@@ -54012,7 +54012,7 @@
         <v>236</v>
       </c>
       <c r="AY410" s="129" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AZ410" s="3" t="s">
         <v>60</v>
@@ -54133,7 +54133,7 @@
         <v>236</v>
       </c>
       <c r="AY411" s="129" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AZ411" s="3" t="s">
         <v>60</v>
@@ -54252,7 +54252,7 @@
         <v>236</v>
       </c>
       <c r="AY412" s="129" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AZ412" s="6">
         <v>27</v>
@@ -54371,7 +54371,7 @@
         <v>236</v>
       </c>
       <c r="AY413" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ413" s="3" t="s">
         <v>298</v>
@@ -54490,7 +54490,7 @@
         <v>236</v>
       </c>
       <c r="AY414" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ414" s="3" t="s">
         <v>298</v>
@@ -54611,7 +54611,7 @@
         <v>235</v>
       </c>
       <c r="AY415" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ415" s="3" t="s">
         <v>290</v>
@@ -54732,7 +54732,7 @@
         <v>235</v>
       </c>
       <c r="AY416" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ416" s="3" t="s">
         <v>290</v>
@@ -54855,7 +54855,7 @@
         <v>241</v>
       </c>
       <c r="AY417" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AZ417" s="36" t="s">
         <v>290</v>
@@ -54972,7 +54972,7 @@
         <v>250</v>
       </c>
       <c r="AY418" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AZ418" s="3" t="s">
         <v>146</v>
@@ -55089,7 +55089,7 @@
         <v>250</v>
       </c>
       <c r="AY419" s="129" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AZ419" s="3" t="s">
         <v>295</v>
@@ -55210,7 +55210,7 @@
         <v>250</v>
       </c>
       <c r="AY420" s="129" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AZ420" s="3" t="s">
         <v>295</v>
@@ -55331,7 +55331,7 @@
         <v>244</v>
       </c>
       <c r="AY421" s="129" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AZ421" s="3" t="s">
         <v>295</v>
@@ -55440,7 +55440,7 @@
         <v>244</v>
       </c>
       <c r="AY422" s="129" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AZ422" s="3" t="s">
         <v>297</v>
@@ -55551,7 +55551,7 @@
         <v>236</v>
       </c>
       <c r="AY423" s="129" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AZ423" s="3" t="s">
         <v>301</v>
@@ -55672,7 +55672,7 @@
         <v>236</v>
       </c>
       <c r="AY424" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ424" s="3" t="s">
         <v>298</v>
@@ -55791,7 +55791,7 @@
         <v>236</v>
       </c>
       <c r="AY425" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ425" s="3" t="s">
         <v>298</v>
@@ -55910,7 +55910,7 @@
         <v>236</v>
       </c>
       <c r="AY426" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ426" s="3" t="s">
         <v>298</v>
@@ -56029,7 +56029,7 @@
         <v>236</v>
       </c>
       <c r="AY427" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ427" s="3" t="s">
         <v>298</v>
@@ -56148,7 +56148,7 @@
         <v>236</v>
       </c>
       <c r="AY428" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ428" s="3" t="s">
         <v>298</v>
@@ -56267,7 +56267,7 @@
         <v>236</v>
       </c>
       <c r="AY429" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ429" s="3" t="s">
         <v>298</v>
@@ -56386,7 +56386,7 @@
         <v>236</v>
       </c>
       <c r="AY430" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ430" s="3" t="s">
         <v>298</v>
@@ -56507,7 +56507,7 @@
         <v>236</v>
       </c>
       <c r="AY431" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ431" s="3" t="s">
         <v>298</v>
@@ -56626,7 +56626,7 @@
         <v>236</v>
       </c>
       <c r="AY432" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ432" s="3" t="s">
         <v>298</v>
@@ -56745,7 +56745,7 @@
         <v>236</v>
       </c>
       <c r="AY433" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ433" s="3" t="s">
         <v>298</v>
@@ -56866,7 +56866,7 @@
         <v>236</v>
       </c>
       <c r="AY434" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ434" s="3" t="s">
         <v>298</v>
@@ -56985,7 +56985,7 @@
         <v>236</v>
       </c>
       <c r="AY435" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ435" s="3" t="s">
         <v>298</v>
@@ -57104,7 +57104,7 @@
         <v>236</v>
       </c>
       <c r="AY436" s="129" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AZ436" s="3" t="s">
         <v>298</v>
@@ -57221,7 +57221,7 @@
         <v>236</v>
       </c>
       <c r="AY437" s="129" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AZ437" s="3" t="s">
         <v>60</v>
@@ -57340,7 +57340,7 @@
         <v>236</v>
       </c>
       <c r="AY438" s="129" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AZ438" s="3" t="s">
         <v>60</v>
@@ -57459,7 +57459,7 @@
         <v>236</v>
       </c>
       <c r="AY439" s="109" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AZ439" s="6">
         <v>27</v>
@@ -57578,7 +57578,7 @@
         <v>241</v>
       </c>
       <c r="AY440" s="129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AZ440" s="3" t="s">
         <v>286</v>
@@ -57695,7 +57695,7 @@
         <v>410</v>
       </c>
       <c r="AY441" s="129" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AZ441" s="3" t="s">
         <v>300</v>
@@ -57810,7 +57810,7 @@
         <v>236</v>
       </c>
       <c r="AY442" s="129" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AZ442" s="3" t="s">
         <v>300</v>
@@ -57927,7 +57927,7 @@
         <v>251</v>
       </c>
       <c r="AY443" s="129" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AZ443" s="3" t="s">
         <v>302</v>
@@ -58038,7 +58038,7 @@
         <v>236</v>
       </c>
       <c r="AY444" s="109" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AZ444" s="6" t="s">
         <v>179</v>
@@ -58157,7 +58157,7 @@
         <v>236</v>
       </c>
       <c r="AY445" s="109" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AZ445" s="6" t="s">
         <v>179</v>
@@ -58278,7 +58278,7 @@
         <v>251</v>
       </c>
       <c r="AY446" s="109" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AZ446" s="6" t="s">
         <v>198</v>
@@ -58399,7 +58399,7 @@
         <v>251</v>
       </c>
       <c r="AY447" s="109" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AZ447" s="6" t="s">
         <v>198</v>
@@ -58520,7 +58520,7 @@
         <v>241</v>
       </c>
       <c r="AY448" s="109" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AZ448" s="6">
         <v>62</v>
@@ -58641,7 +58641,7 @@
         <v>241</v>
       </c>
       <c r="AY449" s="109" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AZ449" s="6" t="s">
         <v>198</v>
@@ -58762,7 +58762,7 @@
         <v>241</v>
       </c>
       <c r="AY450" s="109" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AZ450" s="6">
         <v>62</v>
@@ -58887,7 +58887,7 @@
         <v>249</v>
       </c>
       <c r="AY451" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AZ451" s="3" t="s">
         <v>73</v>
@@ -59010,7 +59010,7 @@
         <v>249</v>
       </c>
       <c r="AY452" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AZ452" s="3" t="s">
         <v>73</v>
@@ -59133,7 +59133,7 @@
         <v>249</v>
       </c>
       <c r="AY453" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AZ453" s="3" t="s">
         <v>73</v>
@@ -59258,7 +59258,7 @@
         <v>249</v>
       </c>
       <c r="AY454" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AZ454" s="3" t="s">
         <v>73</v>
@@ -59379,7 +59379,7 @@
         <v>250</v>
       </c>
       <c r="AY455" s="129" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AZ455" s="3" t="s">
         <v>84</v>
@@ -59504,7 +59504,7 @@
         <v>250</v>
       </c>
       <c r="AY456" s="129" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AZ456" s="3" t="s">
         <v>84</v>
@@ -59629,7 +59629,7 @@
         <v>431</v>
       </c>
       <c r="AY457" s="129" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AZ457" s="3" t="s">
         <v>84</v>
@@ -59734,7 +59734,7 @@
         <v>244</v>
       </c>
       <c r="AY458" s="129" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AZ458" s="112" t="s">
         <v>297</v>
@@ -59845,7 +59845,7 @@
         <v>251</v>
       </c>
       <c r="AY459" s="133" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AZ459" s="110" t="s">
         <v>302</v>
@@ -59966,7 +59966,7 @@
         <v>243</v>
       </c>
       <c r="AY460" s="133" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AZ460" s="110" t="s">
         <v>303</v>
@@ -60089,7 +60089,7 @@
         <v>243</v>
       </c>
       <c r="AY461" s="133" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AZ461" s="110" t="s">
         <v>303</v>
@@ -60216,7 +60216,7 @@
         <v>243</v>
       </c>
       <c r="AY462" s="134" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AZ462" s="119" t="s">
         <v>303</v>
@@ -60343,7 +60343,7 @@
         <v>243</v>
       </c>
       <c r="AY463" s="162" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AZ463" s="159" t="s">
         <v>303</v>
